--- a/results_test/forces/permeation_frames_forces.xlsx
+++ b/results_test/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,138 +483,838 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6727</v>
+        <v>5178</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14.66171423645678</v>
+        <v>8.066077660570116</v>
       </c>
       <c r="E2" t="n">
-        <v>14.16379423484379</v>
+        <v>7.07983495545697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9660394416653615</v>
+        <v>0.8777295797765183</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26392853703519</v>
+        <v>0.6219347271323936</v>
       </c>
       <c r="H2" t="n">
-        <v>-14.48587214946747</v>
+        <v>-8.042064785957336</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6561</v>
+        <v>5552</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.75285490435146</v>
+        <v>12.76515109110311</v>
       </c>
       <c r="E3" t="n">
-        <v>10.09789690879393</v>
+        <v>12.51972982705581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8591867245000376</v>
+        <v>0.9807741199226114</v>
       </c>
       <c r="G3" t="n">
-        <v>3.343650121005855</v>
+        <v>2.547037365561873</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.2671914100647</v>
+        <v>-12.50846445560455</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6670</v>
+        <v>3171</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.45103562302613</v>
+        <v>13.49029355095292</v>
       </c>
       <c r="E4" t="n">
-        <v>11.82064136884382</v>
+        <v>9.420667463379919</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9493701348812704</v>
+        <v>0.6983293156518796</v>
       </c>
       <c r="G4" t="n">
-        <v>2.388757615569407</v>
+        <v>8.044397988892813</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.21974325180054</v>
+        <v>-10.82938969135284</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3631</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7.698816050180231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.200785383620161</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9353107460531661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.777240902818617</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-7.490873336791992</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15.40481858379894</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.213414879028542</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2735127879701056</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.89167642442609</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-10.89402681589127</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8.544506310241179</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.284867466008508</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9696133591800997</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.947924831931268</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-8.31950581073761</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11.6745941511995</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.55222555612785</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9895183855227138</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.378097746486022</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-11.59297180175781</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4994</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>15.53439155601749</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.31075274118619</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9856036321715689</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.329044871549389</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-15.47743391990662</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1308</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5269</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15.95114362297072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.94880022600061</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7490873700612622</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.46300424749503</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-14.09760797023773</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5399</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10.94972148749287</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.907630989159305</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9048294973051255</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.424356854137818</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-10.40048944950104</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5677</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>13.16414400671556</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.05513069699245</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9917189215138106</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9116724501931796</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-13.13253748416901</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5331</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7.661864927241597</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.196999897721495</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8088109039469222</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.600000022828894</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-7.492941617965698</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5886</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>11.22127939195731</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.249131980643455</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2895509386364823</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.215555740782969</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-11.00038290023804</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2436</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5433</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.001003484854612</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.051620677892608</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8643933246118475</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.228557401328979</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-6.636835217475891</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2434</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6016</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.52336749322326</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.361209119097131</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8123674893300362</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.152937806875973</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-10.30704760551453</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5.584938246090046</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.871143140462146</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6931398289268983</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7489847816317962</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5.534487962722778</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11.56787125518414</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.8895073196691</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9413579283041353</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.213309231928226</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-11.50406563282013</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1380</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[-1.382570967078209, -1.3527981080114841, -7.00937819480896]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7.271378677933803</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.633605744672318</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3621879510503873</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.934312591089409</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-7.00937819480896</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-1.5445594787597656, -0.16333770751953125, -0.25521087646484375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6488</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>8.975588233176818</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.568802115630306</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6204386800016209</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.467769515868813</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-8.854763507843018</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6561</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11.75285490435146</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.09789690879393</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8591867245000376</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.343650121005855</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-11.2671914100647</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6359</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>11.2285186445667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.80661405955132</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9624256236846055</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.052740891971373</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-11.03928828239441</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6727</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>14.66171423645678</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.16379423484379</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9660394416653615</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.26392853703519</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-14.48587214946747</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12.45103562302613</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.82064136884382</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9493701348812704</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.388757615569407</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-12.21974325180054</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>1374</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B25" t="n">
         <v>6748</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D25" t="n">
         <v>13.8040533476533</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E25" t="n">
         <v>3.22855079681134</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F25" t="n">
         <v>0.2338842596084429</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G25" t="n">
         <v>10.95703025838193</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H25" t="n">
         <v>-8.396152496337891</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
         </is>

--- a/results_test/forces/permeation_frames_forces.xlsx
+++ b/results_test/forces/permeation_frames_forces.xlsx
@@ -697,31 +697,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-1.2431654334068298, -0.5947210304439068, -11.592971801757812]</t>
+          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.6745941511995</v>
+        <v>4.538939756016481</v>
       </c>
       <c r="E8" t="n">
-        <v>11.55222555612785</v>
+        <v>3.758346423445415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9895183855227138</v>
+        <v>0.8280229801383968</v>
       </c>
       <c r="G8" t="n">
-        <v>1.378097746486022</v>
+        <v>1.033683128043664</v>
       </c>
       <c r="H8" t="n">
-        <v>-11.59297180175781</v>
+        <v>-4.419668912887573</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-1.1576690673828125, 0.13907241821289062, -4.969749450683594]</t>
+          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
         </is>
       </c>
     </row>
@@ -977,31 +977,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6016</v>
+        <v>6017</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-4.774939412251115, 1.9371942728757858, -10.307047605514526]</t>
+          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11.52336749322326</v>
+        <v>5.075181099260022</v>
       </c>
       <c r="E16" t="n">
-        <v>9.361209119097131</v>
+        <v>5.00786542014799</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8123674893300362</v>
+        <v>0.9867363000855581</v>
       </c>
       <c r="G16" t="n">
-        <v>5.152937806875973</v>
+        <v>0.8120608520084311</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.30704760551453</v>
+        <v>-5.009792447090149</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.917236328125, -0.059780120849609375, -5.506996154785156]</t>
+          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
         </is>
       </c>
     </row>
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6425</v>
+        <v>6427</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-1.382570967078209, -1.3527981080114841, -7.00937819480896]</t>
+          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7.271378677933803</v>
+        <v>5.414610218111335</v>
       </c>
       <c r="E19" t="n">
-        <v>2.633605744672318</v>
+        <v>4.929475358221677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3621879510503873</v>
+        <v>0.9104026254250159</v>
       </c>
       <c r="G19" t="n">
-        <v>1.934312591089409</v>
+        <v>1.423460141273367</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.00937819480896</v>
+        <v>-5.224152088165283</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-1.5445594787597656, -0.16333770751953125, -0.25521087646484375]</t>
+          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
         </is>
       </c>
     </row>
@@ -1117,31 +1117,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6488</v>
+        <v>6489</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[-0.4124993681907654, -1.4086133688688278, -8.854763507843018]</t>
+          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8.975588233176818</v>
+        <v>6.492989483308295</v>
       </c>
       <c r="E20" t="n">
-        <v>5.568802115630306</v>
+        <v>6.441561896461293</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6204386800016209</v>
+        <v>0.9920795210004253</v>
       </c>
       <c r="G20" t="n">
-        <v>1.467769515868813</v>
+        <v>0.2515795209212585</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.854763507843018</v>
+        <v>-6.488113760948181</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[-0.6596145629882812, 1.8584747314453125, -2.0570907592773438]</t>
+          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
         </is>
       </c>
     </row>
@@ -1152,31 +1152,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6561</v>
+        <v>6562</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[-2.351348042488098, 2.377216547727585, -11.267191410064697]</t>
+          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11.75285490435146</v>
+        <v>12.03947311046226</v>
       </c>
       <c r="E21" t="n">
-        <v>10.09789690879393</v>
+        <v>9.926848122515773</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8591867245000376</v>
+        <v>0.8245251292508291</v>
       </c>
       <c r="G21" t="n">
-        <v>3.343650121005855</v>
+        <v>2.629129490874901</v>
       </c>
       <c r="H21" t="n">
-        <v>-11.2671914100647</v>
+        <v>-11.74889743328094</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[-0.17771148681640625, -1.4416885375976562, -4.5340423583984375]</t>
+          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
         </is>
       </c>
     </row>

--- a/results_test/forces/permeation_frames_forces.xlsx
+++ b/results_test/forces/permeation_frames_forces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,840 +483,630 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5178</v>
+        <v>594</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.5532672293484211, 0.28407424688339233, -8.042064785957336]</t>
+          <t>[-12.920562520623207, 17.63073266670108, -7.267282247543335]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.066077660570116</v>
+        <v>23.03469256316377</v>
       </c>
       <c r="E2" t="n">
-        <v>7.07983495545697</v>
+        <v>-8.033864768512299</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8777295797765183</v>
+        <v>-0.3487723895807388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6219347271323936</v>
+        <v>21.85826320213968</v>
       </c>
       <c r="H2" t="n">
-        <v>-8.042064785957336</v>
+        <v>-7.267282247543335</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[0.6336288452148438, -1.4450759887695312, -3.3725357055664062]</t>
+          <t>[3.486774444580078, -5.9720001220703125, -8.539749145507812]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5552</v>
+        <v>692</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[2.1177535615861416, 1.4151039516436867, -12.508464455604553]</t>
+          <t>[8.804081737995148, 0.3854767978191376, -1.8715763092041016]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12.76515109110311</v>
+        <v>9.009064629146058</v>
       </c>
       <c r="E3" t="n">
-        <v>12.51972982705581</v>
+        <v>2.104128715708714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9807741199226114</v>
+        <v>0.2335568455021904</v>
       </c>
       <c r="G3" t="n">
-        <v>2.547037365561873</v>
+        <v>8.812516531102597</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.50846445560455</v>
+        <v>-1.871576309204102</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.22468185424804688, 0.5847549438476562, -10.533576965332031]</t>
+          <t>[0.3143463134765625, -1.2615242004394531, -8.960662841796875]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>2398</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3171</v>
+        <v>565</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-7.105156570672989, 3.772146485745907, -10.829389691352844]</t>
+          <t>[-0.7639022618532181, 4.1012390702962875, -19.930686593055725]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.49029355095292</v>
+        <v>20.36261222554711</v>
       </c>
       <c r="E4" t="n">
-        <v>9.420667463379919</v>
+        <v>19.13130058928689</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6983293156518796</v>
+        <v>0.9395307624276515</v>
       </c>
       <c r="G4" t="n">
-        <v>8.044397988892813</v>
+        <v>4.171775230928581</v>
       </c>
       <c r="H4" t="n">
-        <v>-10.82938969135284</v>
+        <v>-19.93068659305573</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.1897125244140625, -1.108856201171875, -4.796470642089844]</t>
+          <t>[3.2506446838378906, -1.1598472595214844, -17.24256134033203]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3631</v>
+        <v>969</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-1.0746096074581146, 1.4155562222003937, -7.490873336791992]</t>
+          <t>[-0.6533946990966797, -10.039370059967041, -4.531984776258469]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.698816050180231</v>
+        <v>11.03425402308687</v>
       </c>
       <c r="E5" t="n">
-        <v>7.200785383620161</v>
+        <v>2.553530355577822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9353107460531661</v>
+        <v>0.2314184855845346</v>
       </c>
       <c r="G5" t="n">
-        <v>1.777240902818617</v>
+        <v>10.06061011240224</v>
       </c>
       <c r="H5" t="n">
-        <v>-7.490873336791992</v>
+        <v>-4.531984776258469</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.8434295654296875, -1.0455818176269531, -5.7932891845703125]</t>
+          <t>[5.960777282714844, 2.729267120361328, -17.362136840820312]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3666</v>
+        <v>707</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[10.75574392080307, 1.7153973430395126, -10.894026815891266]</t>
+          <t>[0.7507225573062897, 4.773991197347641, -15.556918144226074]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15.40481858379894</v>
+        <v>16.29025102497048</v>
       </c>
       <c r="E6" t="n">
-        <v>4.213414879028542</v>
+        <v>9.975358728624318</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2735127879701056</v>
+        <v>0.6123514434083066</v>
       </c>
       <c r="G6" t="n">
-        <v>10.89167642442609</v>
+        <v>4.832657272184864</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.89402681589127</v>
+        <v>-15.55691814422607</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-5.590518951416016, 0.6866645812988281, -9.774658203125]</t>
+          <t>[1.5978927612304688, -2.971912384033203, -4.38037109375]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>2520</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5131</v>
+        <v>787</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-1.5341421365737915, 1.2003412246704102, -8.31950581073761]</t>
+          <t>[-13.154578566551208, 3.3986346274614334, -9.698930323123932]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.544506310241179</v>
+        <v>16.69319933408097</v>
       </c>
       <c r="E7" t="n">
-        <v>8.284867466008508</v>
+        <v>3.148076982409002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9696133591800997</v>
+        <v>0.1885844001144743</v>
       </c>
       <c r="G7" t="n">
-        <v>1.947924831931268</v>
+        <v>13.58652474308822</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.31950581073761</v>
+        <v>-9.698930323123932</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.4506874084472656, 1.7896232604980469, -8.027915954589844]</t>
+          <t>[7.958831787109375, 0.7162055969238281, -16.491683959960938]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4416</v>
+        <v>959</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.9943284774199128, -0.28250962495803833, -4.419668912887573]</t>
+          <t>[4.85807591676712, 4.0646979212760925, -12.652371108531952]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.538939756016481</v>
+        <v>14.14938745926172</v>
       </c>
       <c r="E8" t="n">
-        <v>3.758346423445415</v>
+        <v>10.54082691116718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8280229801383968</v>
+        <v>0.7449670129901985</v>
       </c>
       <c r="G8" t="n">
-        <v>1.033683128043664</v>
+        <v>6.334245874948247</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.419668912887573</v>
+        <v>-12.65237110853195</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[2.0530242919921875, -1.0973854064941406, -5.364692687988281]</t>
+          <t>[-1.7506599426269531, -5.281822204589844, -18.320533752441406]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4994</v>
+        <v>777</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-1.2688956409692764, -0.39530257135629654, -15.477433919906616]</t>
+          <t>[2.6081194430589676, -4.2312188148498535, -9.195363759994507]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15.53439155601749</v>
+        <v>10.45276108820162</v>
       </c>
       <c r="E9" t="n">
-        <v>15.31075274118619</v>
+        <v>8.878427138099886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9856036321715689</v>
+        <v>0.8493858286038185</v>
       </c>
       <c r="G9" t="n">
-        <v>1.329044871549389</v>
+        <v>4.970462723771462</v>
       </c>
       <c r="H9" t="n">
-        <v>-15.47743391990662</v>
+        <v>-9.195363759994507</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.37653350830078125, -0.006805419921875, -4.346221923828125]</t>
+          <t>[0.9539413452148438, 1.3969001770019531, -13.710983276367188]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5269</v>
+        <v>1248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-5.241335988044739, 5.312704533338547, -14.097607970237732]</t>
+          <t>[-3.3383673429489136, 11.95009446144104, -6.190477780997753]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15.95114362297072</v>
+        <v>13.86619880539935</v>
       </c>
       <c r="E10" t="n">
-        <v>11.94880022600061</v>
+        <v>9.180969760765738</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7490873700612622</v>
+        <v>0.6621115050788658</v>
       </c>
       <c r="G10" t="n">
-        <v>7.46300424749503</v>
+        <v>12.40763692867548</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.09760797023773</v>
+        <v>-6.190477780997753</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[1.2253837585449219, -1.5603828430175781, -8.167594909667969]</t>
+          <t>[-1.2147483825683594, 0.6887054443359375, -0.09078216552734375]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>2247</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5399</v>
+        <v>794</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-2.5655597448349, 2.268065929412842, -10.400489449501038]</t>
+          <t>[0.25486694276332855, 3.973426640033722, -6.730924963951111]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.94972148749287</v>
+        <v>7.820385367268257</v>
       </c>
       <c r="E11" t="n">
-        <v>9.907630989159305</v>
+        <v>3.182860451367143</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9048294973051255</v>
+        <v>0.4069953463788129</v>
       </c>
       <c r="G11" t="n">
-        <v>3.424356854137818</v>
+        <v>3.98159219687843</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.40048944950104</v>
+        <v>-6.730924963951111</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.17792129516601562, -0.7498664855957031, -5.464141845703125]</t>
+          <t>[2.0873985290527344, -2.63055419921875, -3.9116897583007812]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>2372</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5677</v>
+        <v>1248</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-0.5429822094738483, 0.7323366552591324, -13.132537484169006]</t>
+          <t>[-9.981672696769238, -4.027546465396881, -5.427530646324158]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.16414400671556</v>
+        <v>12.05458457488881</v>
       </c>
       <c r="E12" t="n">
-        <v>13.05513069699245</v>
+        <v>-10.895716383016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9917189215138106</v>
+        <v>-0.9038649416184051</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9116724501931796</v>
+        <v>10.76359235368747</v>
       </c>
       <c r="H12" t="n">
-        <v>-13.13253748416901</v>
+        <v>-5.427530646324158</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.7129707336425781, 0.1672515869140625, -8.642417907714844]</t>
+          <t>[3.4089317321777344, 1.604522705078125, 0.10662841796875]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5331</v>
+        <v>806</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[-0.8413608223199844, 1.3609232306480408, -7.492941617965698]</t>
+          <t>[6.534557104110718, 3.7390658259391785, 4.73402202129364]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7.661864927241597</v>
+        <v>8.893369119500393</v>
       </c>
       <c r="E13" t="n">
-        <v>6.196999897721495</v>
+        <v>-4.397830002368352</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8088109039469222</v>
+        <v>-0.4945066310949894</v>
       </c>
       <c r="G13" t="n">
-        <v>1.600000022828894</v>
+        <v>7.528681810090666</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.492941617965698</v>
+        <v>4.73402202129364</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[2.7154808044433594, -0.8539695739746094, -5.8134613037109375]</t>
+          <t>[0.74676513671875, 0.5153694152832031, -20.509132385253906]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>2381</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5886</v>
+        <v>946</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-1.1996039599180222, 1.8626963198184967, -11.000382900238037]</t>
+          <t>[9.601044237613678, -11.661227107048035, -1.7264618799090385]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.22127939195731</v>
+        <v>15.20345153961908</v>
       </c>
       <c r="E14" t="n">
-        <v>3.249131980643455</v>
+        <v>-4.061560214754879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2895509386364823</v>
+        <v>-0.2671472464111686</v>
       </c>
       <c r="G14" t="n">
-        <v>2.215555740782969</v>
+        <v>15.10510735131554</v>
       </c>
       <c r="H14" t="n">
-        <v>-11.00038290023804</v>
+        <v>-1.726461879909039</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.178253173828125, -3.5076141357421875, -1.7310256958007812]</t>
+          <t>[-0.46352386474609375, 6.322200775146484, -12.438140869140625]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5433</v>
+        <v>1186</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-2.0779941082000732, 0.8052382115274668, -6.636835217475891]</t>
+          <t>[2.4428126215934753, 0.49578909622505307, -8.41463577747345]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7.001003484854612</v>
+        <v>8.7760603689633</v>
       </c>
       <c r="E15" t="n">
-        <v>6.051620677892608</v>
+        <v>8.280676746972738</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8643933246118475</v>
+        <v>0.9435528470448431</v>
       </c>
       <c r="G15" t="n">
-        <v>2.228557401328979</v>
+        <v>2.492617165180414</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.636835217475891</v>
+        <v>-8.41463577747345</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[1.0330657958984375, 1.6155204772949219, -5.069999694824219]</t>
+          <t>[4.815853118896484, -3.690704345703125, -12.438545227050781]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2434</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6017</v>
+        <v>1248</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-0.8119779080152512, -0.011606216430664062, -5.009792447090149]</t>
+          <t>[3.699047952890396, -14.163208246231079, -8.058695323765278]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.075181099260022</v>
+        <v>16.70993698088557</v>
       </c>
       <c r="E16" t="n">
-        <v>5.00786542014799</v>
+        <v>-2.613813113001731</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9867363000855581</v>
+        <v>-0.1564226792711224</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8120608520084311</v>
+        <v>14.63828622427812</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.009792447090149</v>
+        <v>-8.058695323765278</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-2.9125900268554688, 0.1522216796875, -8.711753845214844]</t>
+          <t>[-5.621417999267578, 1.4537582397460938, -3.01348876953125]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5582</v>
+        <v>1225</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[-0.011387579143047333, 0.7488982081413269, -5.534487962722778]</t>
+          <t>[-0.9318812191486359, -2.220571478828788, -13.284280061721802]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5.584938246090046</v>
+        <v>13.50079394174466</v>
       </c>
       <c r="E17" t="n">
-        <v>3.871143140462146</v>
+        <v>13.21380134611099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6931398289268983</v>
+        <v>0.978742539374201</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7489847816317962</v>
+        <v>2.408181948937791</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.534487962722778</v>
+        <v>-13.2842800617218</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[1.6045913696289062, -2.307353973388672, -3.4020919799804688]</t>
+          <t>[1.012481689453125, -0.3558006286621094, -11.524864196777344]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2443</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6202</v>
+        <v>1219</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.6958926133811474, 0.9939078241586685, -11.50406563282013]</t>
+          <t>[-7.849294036626816, 10.417173475027084, -12.752289831638336]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11.56787125518414</v>
+        <v>18.24143130437794</v>
       </c>
       <c r="E18" t="n">
-        <v>10.8895073196691</v>
+        <v>5.720300019439035</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9413579283041353</v>
+        <v>0.3135883321867491</v>
       </c>
       <c r="G18" t="n">
-        <v>1.213309231928226</v>
+        <v>13.04334773293395</v>
       </c>
       <c r="H18" t="n">
-        <v>-11.50406563282013</v>
+        <v>-12.75228983163834</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[-2.0924835205078125, 2.2961883544921875, -8.451950073242188]</t>
+          <t>[9.918651580810547, -4.4640045166015625, -19.940650939941406]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6427</v>
+        <v>1248</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-0.2791014313697815, -1.3958299197256565, -5.224152088165283]</t>
+          <t>[13.266657590866089, 2.8086227253079414, -3.7235074639320374]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5.414610218111335</v>
+        <v>14.06261259796197</v>
       </c>
       <c r="E19" t="n">
-        <v>4.929475358221677</v>
+        <v>0.5318098541636465</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9104026254250159</v>
+        <v>0.03781728682767804</v>
       </c>
       <c r="G19" t="n">
-        <v>1.423460141273367</v>
+        <v>13.56069929046438</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.224152088165283</v>
+        <v>-3.723507463932037</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[-0.68609619140625, -1.8134956359863281, -2.36322021484375]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1476</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6489</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[0.08745795488357544, -0.23588845133781433, -6.488113760948181]</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>6.492989483308295</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.441561896461293</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9920795210004253</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2515795209212585</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-6.488113760948181</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[-0.4549713134765625, -0.05165863037109375, -4.110870361328125]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1355</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6562</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>[-2.398833990097046, 1.0760656893253326, -11.748897433280945]</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>12.03947311046226</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.926848122515773</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.8245251292508291</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.629129490874901</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-11.74889743328094</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[0.9076499938964844, 0.5763206481933594, -2.2060546875]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1443</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>6359</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>[1.1344347298145294, 1.7107901722192764, -11.03928828239441]</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>11.2285186445667</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.80661405955132</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9624256236846055</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.052740891971373</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-11.03928828239441</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>[-0.6173133850097656, -0.041637420654296875, -5.064704895019531]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1341</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>6727</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>[-1.6921379119157791, -1.5040085464715958, -14.485872149467468]</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>14.66171423645678</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.16379423484379</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9660394416653615</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.26392853703519</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-14.48587214946747</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>[-2.123394012451172, -5.271274566650391, -13.770347595214844]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1465</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>6670</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>[0.6474906206130981, -2.299330085515976, -12.219743251800537]</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>12.45103562302613</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11.82064136884382</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9493701348812704</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.388757615569407</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-12.21974325180054</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>[2.794261932373047, -3.508880615234375, -8.422462463378906]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1374</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>6748</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>[3.8711565881967545, -10.250397980213165, -8.39615249633789]</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>13.8040533476533</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.22855079681134</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2338842596084429</v>
-      </c>
-      <c r="G25" t="n">
-        <v>10.95703025838193</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-8.396152496337891</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[-3.18218994140625, 1.0184707641601562, -5.033805847167969]</t>
+          <t>[-0.21262359619140625, 0.6027069091796875, -0.4115142822265625]</t>
         </is>
       </c>
     </row>
